--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3624368.937336619</v>
+        <v>3623850.64405385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>839054.1707993047</v>
+        <v>839054.1707993038</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>357.0906716489303</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -718,7 +718,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6773891444291</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>45.18137291347571</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -955,16 +955,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>266.9938070849985</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>47.1445242432434</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.35728514156275</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>109.1823275417956</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>45.03754774520647</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>153.8801041800205</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>95.35420068589659</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>41.34964080670906</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1378,7 +1378,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
@@ -1387,10 +1387,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>81.61838887131765</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142885</v>
+        <v>156.9024994199007</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380451</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1587,13 +1587,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1618,7 +1618,7 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>202.9766427138148</v>
       </c>
       <c r="G14" t="n">
         <v>315.0398534825604</v>
@@ -1627,7 +1627,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>99.46191014565997</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
@@ -1858,13 +1858,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422874182</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1906,10 +1906,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2338,7 +2338,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875392</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059311</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211824</v>
+        <v>37.31749240994623</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825603</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H26" t="n">
-        <v>81.61838887131817</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
-        <v>291.5668045419572</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007175</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035416</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219388</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507299</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484026</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872324</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380444</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497637</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943388</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391314</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662015</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
-        <v>186.5058235738176</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2800,7 +2800,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8743587450318</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>117.3587122331093</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
@@ -3037,7 +3037,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
         <v>282.3655247697376</v>
@@ -3049,7 +3049,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
         <v>236.929075365811</v>
@@ -3097,7 +3097,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
         <v>132.9595824117996</v>
@@ -3255,7 +3255,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3514,7 +3514,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697379</v>
       </c>
       <c r="G38" t="n">
         <v>278.6711586412924</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>323.7524085717471</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>316.5063567995628</v>
@@ -3748,7 +3748,7 @@
         <v>308.8493278129631</v>
       </c>
       <c r="E41" t="n">
-        <v>325.8202999520851</v>
+        <v>51.18236554908516</v>
       </c>
       <c r="F41" t="n">
         <v>339.9881044027861</v>
@@ -3760,7 +3760,7 @@
         <v>248.1048302466384</v>
       </c>
       <c r="I41" t="n">
-        <v>64.21635605592397</v>
+        <v>64.21635605592392</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>92.11102982582405</v>
       </c>
       <c r="T41" t="n">
-        <v>117.2583611707893</v>
+        <v>148.5282067336416</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>180.4578125872115</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>294.5516549988595</v>
       </c>
       <c r="X41" t="n">
         <v>312.8206893337378</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.7884123060691</v>
+        <v>319.788412306069</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>95.76567707213482</v>
+        <v>95.76567707213478</v>
       </c>
       <c r="D43" t="n">
-        <v>81.33939228397455</v>
+        <v>81.3393922839745</v>
       </c>
       <c r="E43" t="n">
-        <v>81.26583433685366</v>
+        <v>81.26583433685362</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.01528575662088</v>
       </c>
       <c r="G43" t="n">
-        <v>93.83412367901306</v>
+        <v>93.83412367901302</v>
       </c>
       <c r="H43" t="n">
-        <v>81.1863758455851</v>
+        <v>81.18637584558506</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>59.02609142675699</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.92458979121295</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>128.0505332967403</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.6244716309124</v>
+        <v>90.65207788582299</v>
       </c>
       <c r="U43" t="n">
         <v>209.8470141579822</v>
       </c>
       <c r="V43" t="n">
-        <v>190.5821620448482</v>
+        <v>190.5821620448481</v>
       </c>
       <c r="W43" t="n">
         <v>207.7597083655983</v>
       </c>
       <c r="X43" t="n">
-        <v>53.0959896626452</v>
+        <v>159.0021293123108</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>323.7524085717471</v>
+        <v>323.752408571747</v>
       </c>
       <c r="C44" t="n">
         <v>316.5063567995628</v>
@@ -3985,19 +3985,19 @@
         <v>308.8493278129631</v>
       </c>
       <c r="E44" t="n">
-        <v>325.8202999520851</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>339.9881044027861</v>
+        <v>336.6606014174689</v>
       </c>
       <c r="G44" t="n">
-        <v>223.2168005021946</v>
+        <v>336.293738274341</v>
       </c>
       <c r="H44" t="n">
         <v>248.1048302466384</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>64.21635605592392</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>180.4578125872115</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>265.9483515209809</v>
       </c>
       <c r="W44" t="n">
-        <v>294.5516549988596</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>312.8206893337378</v>
       </c>
       <c r="Y44" t="n">
-        <v>319.7884123060691</v>
+        <v>319.788412306069</v>
       </c>
     </row>
     <row r="45">
@@ -4137,25 +4137,25 @@
         <v>110.6185488218524</v>
       </c>
       <c r="C46" t="n">
-        <v>95.76567707213482</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.26583433685362</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>83.01528575662088</v>
       </c>
       <c r="G46" t="n">
-        <v>93.83412367901306</v>
+        <v>93.83412367901302</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>81.18637584558506</v>
       </c>
       <c r="I46" t="n">
-        <v>59.02609142675703</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.92458979121295</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>128.0505332967403</v>
+        <v>128.0505332967402</v>
       </c>
       <c r="T46" t="n">
-        <v>160.6244716309124</v>
+        <v>160.6244716309123</v>
       </c>
       <c r="U46" t="n">
         <v>209.8470141579822</v>
       </c>
       <c r="V46" t="n">
-        <v>190.5821620448482</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>176.0005309337366</v>
+        <v>207.7597083655983</v>
       </c>
       <c r="X46" t="n">
-        <v>159.0021293123109</v>
+        <v>159.0021293123108</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>118.0718469640323</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1339.790331424607</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="C2" t="n">
-        <v>1339.790331424607</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="D2" t="n">
-        <v>1339.790331424607</v>
+        <v>1296.447575514436</v>
       </c>
       <c r="E2" t="n">
-        <v>1339.790331424607</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F2" t="n">
-        <v>922.895892954585</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G2" t="n">
         <v>509.7331374425881</v>
@@ -4333,10 +4333,10 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>191.9627430103717</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L2" t="n">
-        <v>685.2830347289006</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M2" t="n">
         <v>864.7645682749193</v>
@@ -4366,16 +4366,16 @@
         <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1339.790331424607</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.790331424607</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X2" t="n">
-        <v>1339.790331424607</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y2" t="n">
-        <v>1339.790331424607</v>
+        <v>1681.888704297768</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K3" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L3" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M3" t="n">
-        <v>1549.231189288413</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.763130931309</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O3" t="n">
-        <v>2131.28341352229</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4515,25 +4515,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>903.1222422254439</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T4" t="n">
-        <v>667.403190393678</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U4" t="n">
-        <v>667.403190393678</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V4" t="n">
-        <v>401.4238452145021</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="C5" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D5" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E5" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F5" t="n">
-        <v>598.8128425210757</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G5" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H5" t="n">
         <v>185.6500870090788</v>
@@ -4573,19 +4573,19 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>864.7645682749193</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N5" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O5" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
@@ -4603,16 +4603,16 @@
         <v>1681.888704297768</v>
       </c>
       <c r="V5" t="n">
-        <v>1412.197990070497</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W5" t="n">
-        <v>1412.197990070497</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X5" t="n">
-        <v>1412.197990070497</v>
+        <v>579.3302549026308</v>
       </c>
       <c r="Y5" t="n">
-        <v>1015.707280991098</v>
+        <v>531.7095233437991</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>47.31297010154361</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="M6" t="n">
-        <v>632.8109751081457</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>401.5784072734814</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="C7" t="n">
-        <v>401.5784072734814</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D7" t="n">
-        <v>245.9452941759961</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E7" t="n">
-        <v>245.9452941759961</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F7" t="n">
-        <v>245.9452941759961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
         <v>47.31297010154361</v>
@@ -4749,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>948.7599926430961</v>
+        <v>920.1162702778812</v>
       </c>
       <c r="S7" t="n">
-        <v>745.9439088256454</v>
+        <v>920.1162702778812</v>
       </c>
       <c r="T7" t="n">
-        <v>635.6587294904983</v>
+        <v>920.1162702778812</v>
       </c>
       <c r="U7" t="n">
-        <v>635.6587294904983</v>
+        <v>920.1162702778812</v>
       </c>
       <c r="V7" t="n">
-        <v>635.6587294904983</v>
+        <v>920.1162702778812</v>
       </c>
       <c r="W7" t="n">
-        <v>635.6587294904983</v>
+        <v>920.1162702778812</v>
       </c>
       <c r="X7" t="n">
-        <v>401.5784072734814</v>
+        <v>686.0359480608643</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.5784072734814</v>
+        <v>686.0359480608643</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1889.040529361152</v>
+        <v>463.1051052726121</v>
       </c>
       <c r="C8" t="n">
-        <v>1495.865027864083</v>
+        <v>69.92960377554269</v>
       </c>
       <c r="D8" t="n">
-        <v>1495.865027864083</v>
+        <v>69.92960377554269</v>
       </c>
       <c r="E8" t="n">
-        <v>1340.430579197395</v>
+        <v>69.92960377554269</v>
       </c>
       <c r="F8" t="n">
-        <v>923.5361407273731</v>
+        <v>57.07556934592451</v>
       </c>
       <c r="G8" t="n">
-        <v>510.3733852153762</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="H8" t="n">
-        <v>186.2903347818668</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="I8" t="n">
-        <v>47.95321787433166</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="J8" t="n">
-        <v>47.95321787433166</v>
+        <v>192.6029907831598</v>
       </c>
       <c r="K8" t="n">
-        <v>350.7760568697413</v>
+        <v>551.5853468106217</v>
       </c>
       <c r="L8" t="n">
-        <v>350.7760568697413</v>
+        <v>1044.905638529151</v>
       </c>
       <c r="M8" t="n">
-        <v>896.7769569143219</v>
+        <v>1590.906538573731</v>
       </c>
       <c r="N8" t="n">
-        <v>1424.588240551784</v>
+        <v>1772.775732683309</v>
       </c>
       <c r="O8" t="n">
-        <v>1864.627841444112</v>
+        <v>2212.815333575638</v>
       </c>
       <c r="P8" t="n">
-        <v>2212.815333575634</v>
+        <v>2212.815333575638</v>
       </c>
       <c r="Q8" t="n">
-        <v>2397.660893716583</v>
+        <v>2397.660893716587</v>
       </c>
       <c r="R8" t="n">
-        <v>2397.660893716583</v>
+        <v>2397.660893716587</v>
       </c>
       <c r="S8" t="n">
-        <v>2231.147338657634</v>
+        <v>2231.147338657637</v>
       </c>
       <c r="T8" t="n">
-        <v>2231.147338657634</v>
+        <v>2007.646736217054</v>
       </c>
       <c r="U8" t="n">
-        <v>2231.147338657634</v>
+        <v>2007.646736217054</v>
       </c>
       <c r="V8" t="n">
-        <v>1889.040529361152</v>
+        <v>1665.539926920572</v>
       </c>
       <c r="W8" t="n">
-        <v>1889.040529361152</v>
+        <v>1294.54089188886</v>
       </c>
       <c r="X8" t="n">
-        <v>1889.040529361152</v>
+        <v>905.0882868219165</v>
       </c>
       <c r="Y8" t="n">
-        <v>1889.040529361152</v>
+        <v>508.5975777425177</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>847.3192010143625</v>
+        <v>847.3192010143628</v>
       </c>
       <c r="C9" t="n">
-        <v>696.6649705744547</v>
+        <v>696.664970574455</v>
       </c>
       <c r="D9" t="n">
-        <v>566.5760031959351</v>
+        <v>566.5760031959353</v>
       </c>
       <c r="E9" t="n">
-        <v>430.1295123068228</v>
+        <v>430.129512306823</v>
       </c>
       <c r="F9" t="n">
-        <v>305.6977061899547</v>
+        <v>305.6977061899548</v>
       </c>
       <c r="G9" t="n">
-        <v>185.6378882618191</v>
+        <v>185.6378882618192</v>
       </c>
       <c r="H9" t="n">
-        <v>97.34047186242006</v>
+        <v>97.34047186242015</v>
       </c>
       <c r="I9" t="n">
-        <v>47.95321787433166</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="J9" t="n">
-        <v>47.95321787433166</v>
+        <v>161.0682000940591</v>
       </c>
       <c r="K9" t="n">
-        <v>367.6923639365581</v>
+        <v>480.8073461562856</v>
       </c>
       <c r="L9" t="n">
-        <v>851.2584498348713</v>
+        <v>964.3734320545989</v>
       </c>
       <c r="M9" t="n">
-        <v>851.2584498348713</v>
+        <v>1132.881221383825</v>
       </c>
       <c r="N9" t="n">
-        <v>1444.147101542589</v>
+        <v>1726.30229257868</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.66738413357</v>
+        <v>1726.30229257868</v>
       </c>
       <c r="P9" t="n">
-        <v>2366.288752849967</v>
+        <v>2131.923661295077</v>
       </c>
       <c r="Q9" t="n">
-        <v>2366.288752849967</v>
+        <v>2366.288752849968</v>
       </c>
       <c r="R9" t="n">
         <v>2342.371709748032</v>
@@ -4928,7 +4928,7 @@
         <v>1178.429752379817</v>
       </c>
       <c r="Y9" t="n">
-        <v>999.1155354553239</v>
+        <v>999.1155354553241</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.72053182050243</v>
+        <v>853.0828659856857</v>
       </c>
       <c r="C10" t="n">
-        <v>89.72053182050243</v>
+        <v>682.8777480516749</v>
       </c>
       <c r="D10" t="n">
-        <v>89.72053182050243</v>
+        <v>527.2446349541897</v>
       </c>
       <c r="E10" t="n">
-        <v>47.95321787433166</v>
+        <v>371.6858228133922</v>
       </c>
       <c r="F10" t="n">
-        <v>47.95321787433166</v>
+        <v>371.6858228133922</v>
       </c>
       <c r="G10" t="n">
-        <v>47.95321787433166</v>
+        <v>203.4317689128378</v>
       </c>
       <c r="H10" t="n">
-        <v>47.95321787433166</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="I10" t="n">
-        <v>47.95321787433166</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="J10" t="n">
-        <v>47.95321787433166</v>
+        <v>47.95321787433173</v>
       </c>
       <c r="K10" t="n">
-        <v>129.7882589842735</v>
+        <v>129.7882589842736</v>
       </c>
       <c r="L10" t="n">
-        <v>293.9158988580733</v>
+        <v>293.9158988580734</v>
       </c>
       <c r="M10" t="n">
-        <v>480.2074771963373</v>
+        <v>480.2074771963374</v>
       </c>
       <c r="N10" t="n">
-        <v>663.3971112275465</v>
+        <v>663.3971112275467</v>
       </c>
       <c r="O10" t="n">
-        <v>826.1018782692545</v>
+        <v>826.1018782692547</v>
       </c>
       <c r="P10" t="n">
-        <v>945.978044045833</v>
+        <v>945.9780440458333</v>
       </c>
       <c r="Q10" t="n">
-        <v>949.400240415884</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="R10" t="n">
-        <v>825.499251048461</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="S10" t="n">
-        <v>825.499251048461</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="T10" t="n">
-        <v>589.7801992166951</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="U10" t="n">
-        <v>589.7801992166951</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="V10" t="n">
-        <v>323.8008540375193</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="W10" t="n">
-        <v>323.8008540375193</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="X10" t="n">
-        <v>89.72053182050243</v>
+        <v>949.4002404158842</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.72053182050243</v>
+        <v>949.4002404158842</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1598.67307041405</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.438250204169</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>1009.937802708025</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>702.2949591117579</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>380.341201928924</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5068,25 +5068,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3023.513568164041</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V11" t="n">
-        <v>2776.347440154748</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="W11" t="n">
-        <v>2500.289086410224</v>
+        <v>2629.765236536096</v>
       </c>
       <c r="X11" t="n">
-        <v>2205.777162630469</v>
+        <v>2335.253312756342</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.227134838259</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.571845448837</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D13" t="n">
         <v>357.1274984979811</v>
@@ -5205,19 +5205,19 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5226,7 +5226,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
         <v>1400.589220329742</v>
@@ -5238,13 +5238,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X13" t="n">
         <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1754.28502983002</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1456.050209620139</v>
       </c>
       <c r="D14" t="n">
-        <v>1239.080171854346</v>
+        <v>1165.549762123995</v>
       </c>
       <c r="E14" t="n">
-        <v>931.4373282580789</v>
+        <v>857.9069185277281</v>
       </c>
       <c r="F14" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3005.489809301069</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U14" t="n">
-        <v>3005.489809301069</v>
+        <v>2873.571463155803</v>
       </c>
       <c r="V14" t="n">
-        <v>3005.489809301069</v>
+        <v>2626.40533514651</v>
       </c>
       <c r="W14" t="n">
-        <v>2729.431455556545</v>
+        <v>2350.346981401985</v>
       </c>
       <c r="X14" t="n">
-        <v>2434.91953177679</v>
+        <v>2055.835057622231</v>
       </c>
       <c r="Y14" t="n">
-        <v>2133.36950398458</v>
+        <v>1754.28502983002</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>658.8001958221562</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5415,10 +5415,10 @@
         <v>493.0843669551003</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443718</v>
@@ -5436,34 +5436,34 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5475,13 +5475,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099302</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803419</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924096</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5545,10 +5545,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5557,10 +5557,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5603,16 +5603,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1458.313011372373</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229987</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222417</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>442.71782091847</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5737,13 +5737,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5779,7 +5779,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5788,16 +5788,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5910,28 +5910,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184696</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5974,16 +5974,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975455</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6016,7 +6016,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6025,16 +6025,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N24" t="n">
         <v>1458.313011372373</v>
@@ -6147,28 +6147,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1681.115887455785</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C26" t="n">
-        <v>1382.881067245904</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="D26" t="n">
-        <v>1092.38061974976</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>784.7377761534933</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F26" t="n">
-        <v>462.7840189706595</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G26" t="n">
-        <v>144.5619447458511</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V26" t="n">
-        <v>2858.790257196483</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W26" t="n">
-        <v>2582.731903451959</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X26" t="n">
-        <v>2288.219979672204</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y26" t="n">
-        <v>1986.669951879994</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669550999</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C28" t="n">
-        <v>417.8199303082775</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979806</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443715</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G28" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H28" t="n">
-        <v>100.2728717798492</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K28" t="n">
-        <v>300.2831496757666</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>836.8050913469772</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>1678.203301484818</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>1649.242993404581</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852095</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X28" t="n">
-        <v>711.523084255381</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1391.743918024177</v>
+        <v>1549.258117997884</v>
       </c>
       <c r="C29" t="n">
-        <v>1093.509097814296</v>
+        <v>1251.023297788003</v>
       </c>
       <c r="D29" t="n">
-        <v>803.0086503181525</v>
+        <v>960.522850291859</v>
       </c>
       <c r="E29" t="n">
-        <v>495.3658067218854</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="F29" t="n">
-        <v>495.3658067218854</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G29" t="n">
-        <v>177.1437324970769</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6502,13 +6502,13 @@
         <v>2569.418287764875</v>
       </c>
       <c r="W29" t="n">
-        <v>2293.359934020351</v>
+        <v>2450.874133994058</v>
       </c>
       <c r="X29" t="n">
-        <v>1998.848010240597</v>
+        <v>2156.362210214303</v>
       </c>
       <c r="Y29" t="n">
-        <v>1697.297982448386</v>
+        <v>1854.812182422093</v>
       </c>
     </row>
     <row r="30">
@@ -6551,16 +6551,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
@@ -6621,52 +6621,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791393</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
         <v>1581.729743385192</v>
       </c>
       <c r="Q31" t="n">
-        <v>1678.203301484816</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R31" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V31" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592132</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G32" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924217</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
         <v>1059.071548358934</v>
@@ -6727,7 +6727,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
         <v>2979.295701071061</v>
@@ -6742,7 +6742,7 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
         <v>1882.877496443165</v>
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M33" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>593.6560140511123</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N34" t="n">
-        <v>804.5780233445246</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O34" t="n">
-        <v>967.2827903862326</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P34" t="n">
-        <v>1087.158956162811</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q34" t="n">
         <v>1090.581152532862</v>
       </c>
       <c r="R34" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6970,16 +6970,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7019,22 +7019,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7095,25 +7095,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
         <v>1098.20216247628</v>
@@ -7162,7 +7162,7 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
         <v>261.1858216803431</v>
@@ -7210,10 +7210,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7332,28 +7332,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229885</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>278.5901810446693</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021.491868657955</v>
+        <v>1744.079813705429</v>
       </c>
       <c r="C41" t="n">
-        <v>1701.788477951326</v>
+        <v>1424.3764229988</v>
       </c>
       <c r="D41" t="n">
-        <v>1389.819459958434</v>
+        <v>1112.407405005908</v>
       </c>
       <c r="E41" t="n">
         <v>1060.708045865418</v>
       </c>
       <c r="F41" t="n">
-        <v>717.2857181858361</v>
+        <v>717.285718185836</v>
       </c>
       <c r="G41" t="n">
-        <v>377.5950734642796</v>
+        <v>377.5950734642795</v>
       </c>
       <c r="H41" t="n">
         <v>126.9841338212104</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3012.914940937267</v>
       </c>
       <c r="T41" t="n">
-        <v>2987.513596144373</v>
+        <v>2862.886449287124</v>
       </c>
       <c r="U41" t="n">
-        <v>2987.513596144373</v>
+        <v>2680.605830512163</v>
       </c>
       <c r="V41" t="n">
-        <v>2987.513596144373</v>
+        <v>2680.605830512163</v>
       </c>
       <c r="W41" t="n">
-        <v>2987.513596144373</v>
+        <v>2383.07890627089</v>
       </c>
       <c r="X41" t="n">
-        <v>2671.53310186787</v>
+        <v>2067.098411994388</v>
       </c>
       <c r="Y41" t="n">
-        <v>2348.514503578911</v>
+        <v>1744.079813705429</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
         <v>802.5350401618138</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>499.8882218632683</v>
+        <v>643.3643604323366</v>
       </c>
       <c r="C43" t="n">
-        <v>403.1552147196978</v>
+        <v>546.6313532887661</v>
       </c>
       <c r="D43" t="n">
-        <v>320.9942124126528</v>
+        <v>464.4703509817212</v>
       </c>
       <c r="E43" t="n">
-        <v>238.9075110622955</v>
+        <v>382.383649631364</v>
       </c>
       <c r="F43" t="n">
-        <v>238.9075110622955</v>
+        <v>298.5298256347772</v>
       </c>
       <c r="G43" t="n">
-        <v>144.1255679521813</v>
+        <v>203.7478825246631</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>121.7414422765973</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>104.3554008923885</v>
+        <v>104.3554008923886</v>
       </c>
       <c r="K43" t="n">
-        <v>258.2004577880409</v>
+        <v>258.200457788041</v>
       </c>
       <c r="L43" t="n">
-        <v>494.3381134475512</v>
+        <v>494.3381134475513</v>
       </c>
       <c r="M43" t="n">
         <v>752.6397075715258</v>
       </c>
       <c r="N43" t="n">
-        <v>1007.839357388445</v>
+        <v>1007.839357388446</v>
       </c>
       <c r="O43" t="n">
         <v>1242.554140215864</v>
@@ -7590,31 +7590,31 @@
         <v>1434.440321778153</v>
       </c>
       <c r="Q43" t="n">
-        <v>1509.872533933914</v>
+        <v>1509.872533933915</v>
       </c>
       <c r="R43" t="n">
-        <v>1459.443655356932</v>
+        <v>1509.872533933915</v>
       </c>
       <c r="S43" t="n">
-        <v>1330.099682329921</v>
+        <v>1509.872533933915</v>
       </c>
       <c r="T43" t="n">
-        <v>1167.852741288596</v>
+        <v>1418.30477849369</v>
       </c>
       <c r="U43" t="n">
-        <v>955.8860603209367</v>
+        <v>1206.338097526031</v>
       </c>
       <c r="V43" t="n">
-        <v>763.3788259322012</v>
+        <v>1013.830863137295</v>
       </c>
       <c r="W43" t="n">
-        <v>553.520534653819</v>
+        <v>803.9725718589133</v>
       </c>
       <c r="X43" t="n">
-        <v>499.8882218632683</v>
+        <v>643.3643604323366</v>
       </c>
       <c r="Y43" t="n">
-        <v>499.8882218632683</v>
+        <v>643.3643604323366</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1842.407733478085</v>
+        <v>1689.019340438356</v>
       </c>
       <c r="C44" t="n">
-        <v>1522.704342771456</v>
+        <v>1369.315949731727</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.735324778564</v>
+        <v>1057.346931738835</v>
       </c>
       <c r="E44" t="n">
-        <v>881.623910685549</v>
+        <v>1057.346931738835</v>
       </c>
       <c r="F44" t="n">
-        <v>538.2015830059671</v>
+        <v>717.285718185836</v>
       </c>
       <c r="G44" t="n">
-        <v>312.7300673471846</v>
+        <v>377.5950734642795</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>126.9841338212104</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7681,19 +7681,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>3105.956385205776</v>
+        <v>2923.675766430815</v>
       </c>
       <c r="V44" t="n">
-        <v>3105.956385205776</v>
+        <v>2655.041067924774</v>
       </c>
       <c r="W44" t="n">
-        <v>2808.429460964504</v>
+        <v>2655.041067924774</v>
       </c>
       <c r="X44" t="n">
-        <v>2492.448966688001</v>
+        <v>2339.060573648271</v>
       </c>
       <c r="Y44" t="n">
-        <v>2169.430368399042</v>
+        <v>2016.041975359313</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M45" t="n">
-        <v>1122.744905612751</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>313.2563925302821</v>
+        <v>404.8480364092394</v>
       </c>
       <c r="C46" t="n">
-        <v>216.5233853867116</v>
+        <v>404.8480364092394</v>
       </c>
       <c r="D46" t="n">
-        <v>216.5233853867116</v>
+        <v>404.8480364092394</v>
       </c>
       <c r="E46" t="n">
-        <v>216.5233853867116</v>
+        <v>322.7613350588822</v>
       </c>
       <c r="F46" t="n">
-        <v>216.5233853867116</v>
+        <v>238.9075110622954</v>
       </c>
       <c r="G46" t="n">
-        <v>121.7414422765974</v>
+        <v>144.1255679521813</v>
       </c>
       <c r="H46" t="n">
-        <v>121.7414422765974</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>104.3554008923885</v>
+        <v>104.3554008923886</v>
       </c>
       <c r="K46" t="n">
-        <v>258.2004577880409</v>
+        <v>258.200457788041</v>
       </c>
       <c r="L46" t="n">
-        <v>494.3381134475512</v>
+        <v>494.3381134475513</v>
       </c>
       <c r="M46" t="n">
         <v>752.6397075715258</v>
       </c>
       <c r="N46" t="n">
-        <v>1007.839357388445</v>
+        <v>1007.839357388446</v>
       </c>
       <c r="O46" t="n">
         <v>1242.554140215864</v>
@@ -7827,31 +7827,31 @@
         <v>1434.440321778153</v>
       </c>
       <c r="Q46" t="n">
-        <v>1509.872533933914</v>
+        <v>1509.872533933915</v>
       </c>
       <c r="R46" t="n">
-        <v>1459.443655356932</v>
+        <v>1509.872533933915</v>
       </c>
       <c r="S46" t="n">
-        <v>1330.099682329921</v>
+        <v>1380.528560906904</v>
       </c>
       <c r="T46" t="n">
-        <v>1167.852741288596</v>
+        <v>1218.281619865579</v>
       </c>
       <c r="U46" t="n">
-        <v>955.8860603209367</v>
+        <v>1006.31493889792</v>
       </c>
       <c r="V46" t="n">
-        <v>763.3788259322012</v>
+        <v>1006.31493889792</v>
       </c>
       <c r="W46" t="n">
-        <v>585.6005118577198</v>
+        <v>796.456647619538</v>
       </c>
       <c r="X46" t="n">
-        <v>424.9923004311432</v>
+        <v>635.8484361929613</v>
       </c>
       <c r="Y46" t="n">
-        <v>424.9923004311432</v>
+        <v>516.5839443101004</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>331.0195299270391</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -8057,10 +8057,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,16 +8069,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
-        <v>151.5659933015362</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8221,10 +8221,10 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>470.2375325962349</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>653.4271014745298</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>471.7186805737889</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N6" t="n">
-        <v>667.5244230630196</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>448.9400587301562</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>332.8247480141256</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>262.597010260651</v>
       </c>
       <c r="N9" t="n">
-        <v>684.249538821558</v>
+        <v>684.7873362833133</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
@@ -8777,10 +8777,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N12" t="n">
-        <v>258.8480380294549</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
@@ -9014,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>663.2434089132776</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9251,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2645480167034</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9482,25 +9482,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9959,10 +9959,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>351.8313913012159</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10199,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10439,16 +10439,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N36" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10840,7 +10840,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10901,16 +10901,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>237.5738335035115</v>
+        <v>603.5495674056833</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,16 +11138,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>726.0244253199895</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11378,16 +11378,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>486.9652344155852</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>424.3297954396435</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11396,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>77.58553892411328</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>141.6320280943877</v>
       </c>
     </row>
     <row r="12">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>115.7575768971907</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>27.81241179620105</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>250.2779506112363</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>145.2325565835395</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641433</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404343</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954308</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>112.976586709826</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>155.9390579739697</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>323.752408571747</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>274.6379344029999</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>92.11102982582409</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>31.26984556285234</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>180.4578125872115</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>265.948351520981</v>
+        <v>265.9483515209809</v>
       </c>
       <c r="W41" t="n">
-        <v>294.5516549988596</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.01528575662093</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>59.02609142675703</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>49.92458979121291</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>128.0505332967402</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>69.97239374508931</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>105.9061396496657</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>148.1435508889872</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>325.820299952085</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>3.327502985317267</v>
       </c>
       <c r="G44" t="n">
-        <v>113.0769377721463</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>64.21635605592397</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>92.11102982582409</v>
+        <v>92.11102982582405</v>
       </c>
       <c r="T44" t="n">
         <v>148.5282067336416</v>
       </c>
       <c r="U44" t="n">
-        <v>180.4578125872115</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>265.948351520981</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>294.5516549988595</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>95.76567707213478</v>
       </c>
       <c r="D46" t="n">
-        <v>81.33939228397455</v>
+        <v>81.3393922839745</v>
       </c>
       <c r="E46" t="n">
-        <v>81.26583433685366</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.01528575662093</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>81.1863758455851</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>59.02609142675699</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>49.92458979121291</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>190.5821620448481</v>
       </c>
       <c r="W46" t="n">
-        <v>31.75917743186173</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.1435508889872</v>
+        <v>30.07170392495485</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>542323.5925863622</v>
+        <v>542323.5925863623</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>542323.5925863624</v>
+        <v>542323.5925863623</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>685262.276754756</v>
       </c>
       <c r="C2" t="n">
+        <v>685262.2767547555</v>
+      </c>
+      <c r="D2" t="n">
         <v>685262.276754756</v>
       </c>
-      <c r="D2" t="n">
-        <v>685262.2767547558</v>
-      </c>
       <c r="E2" t="n">
-        <v>644009.2661963048</v>
+        <v>644009.266196305</v>
       </c>
       <c r="F2" t="n">
-        <v>644009.2661963053</v>
+        <v>644009.266196305</v>
       </c>
       <c r="G2" t="n">
         <v>685262.2767547553</v>
       </c>
       <c r="H2" t="n">
-        <v>685262.276754756</v>
+        <v>685262.2767547552</v>
       </c>
       <c r="I2" t="n">
-        <v>685262.2767547554</v>
+        <v>685262.2767547561</v>
       </c>
       <c r="J2" t="n">
-        <v>644009.2661963068</v>
+        <v>644009.2661963061</v>
       </c>
       <c r="K2" t="n">
-        <v>644009.2661963053</v>
+        <v>644009.2661963048</v>
       </c>
       <c r="L2" t="n">
+        <v>685262.2767547562</v>
+      </c>
+      <c r="M2" t="n">
         <v>685262.2767547561</v>
       </c>
-      <c r="M2" t="n">
-        <v>685262.2767547559</v>
-      </c>
       <c r="N2" t="n">
-        <v>685262.2767547561</v>
+        <v>685262.2767547553</v>
       </c>
       <c r="O2" t="n">
+        <v>608348.0054197877</v>
+      </c>
+      <c r="P2" t="n">
         <v>608348.0054197875</v>
-      </c>
-      <c r="P2" t="n">
-        <v>608348.0054197874</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2486.002070764426</v>
+        <v>2486.002070764674</v>
       </c>
       <c r="E3" t="n">
-        <v>128063.3823939182</v>
+        <v>128063.382393918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.9558730143</v>
+        <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720423</v>
+        <v>200837.4980720422</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>60215.42360931246</v>
+        <v>60215.4236093127</v>
       </c>
       <c r="M3" t="n">
-        <v>44127.51741526822</v>
+        <v>44127.51741526803</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="C4" t="n">
         <v>154346.0890704043</v>
       </c>
       <c r="D4" t="n">
-        <v>152938.7937303627</v>
+        <v>152938.7937303626</v>
       </c>
       <c r="E4" t="n">
         <v>97239.09137183767</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183774</v>
+        <v>97239.09137183767</v>
       </c>
       <c r="G4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
         <v>121843.4120153197</v>
@@ -26441,10 +26441,10 @@
         <v>121843.4120153196</v>
       </c>
       <c r="J4" t="n">
-        <v>97239.09137183777</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="K4" t="n">
-        <v>97239.09137183773</v>
+        <v>97239.09137183767</v>
       </c>
       <c r="L4" t="n">
         <v>121843.4120153197</v>
@@ -26456,10 +26456,10 @@
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>75761.06898230789</v>
+        <v>75761.06898230794</v>
       </c>
       <c r="P4" t="n">
-        <v>75761.06898230789</v>
+        <v>75761.06898230794</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>70072.04558449207</v>
+        <v>70072.04558449211</v>
       </c>
       <c r="E5" t="n">
         <v>55112.2895089091</v>
@@ -26493,7 +26493,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>55112.28950890911</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="K5" t="n">
         <v>55112.2895089091</v>
@@ -26524,46 +26524,46 @@
         <v>263134.9244154335</v>
       </c>
       <c r="C6" t="n">
-        <v>461330.7304071785</v>
+        <v>461330.7304071781</v>
       </c>
       <c r="D6" t="n">
-        <v>459765.4353691366</v>
+        <v>459765.4353691367</v>
       </c>
       <c r="E6" t="n">
-        <v>363594.5029216398</v>
+        <v>363485.9423675391</v>
       </c>
       <c r="F6" t="n">
-        <v>491657.8853155584</v>
+        <v>491549.3247614571</v>
       </c>
       <c r="G6" t="n">
         <v>476154.1395509017</v>
       </c>
       <c r="H6" t="n">
-        <v>505249.0954239166</v>
+        <v>505249.0954239158</v>
       </c>
       <c r="I6" t="n">
-        <v>505249.0954239161</v>
+        <v>505249.0954239168</v>
       </c>
       <c r="J6" t="n">
-        <v>290820.3872435177</v>
+        <v>290711.8266894159</v>
       </c>
       <c r="K6" t="n">
-        <v>491657.8853155585</v>
+        <v>491549.3247614569</v>
       </c>
       <c r="L6" t="n">
-        <v>445033.6718146043</v>
+        <v>445033.6718146041</v>
       </c>
       <c r="M6" t="n">
-        <v>461121.5780086483</v>
+        <v>461121.5780086488</v>
       </c>
       <c r="N6" t="n">
-        <v>505249.0954239168</v>
+        <v>505249.0954239159</v>
       </c>
       <c r="O6" t="n">
-        <v>479261.4397691307</v>
+        <v>479059.0337919336</v>
       </c>
       <c r="P6" t="n">
-        <v>479261.4397691305</v>
+        <v>479059.0337919334</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="P2" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
     </row>
     <row r="3">
@@ -26795,7 +26795,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>599.4152234291457</v>
+        <v>599.4152234291466</v>
       </c>
       <c r="E4" t="n">
         <v>776.4890963014441</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126788</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>8.003097159850709</v>
+        <v>8.003097159851507</v>
       </c>
       <c r="E4" t="n">
-        <v>177.0738728722983</v>
+        <v>177.0738728722975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159850709</v>
+        <v>8.003097159851507</v>
       </c>
       <c r="M4" t="n">
-        <v>177.0738728722983</v>
+        <v>177.0738728722975</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431643</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126788</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304856</v>
+        <v>57.62257963304852</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.003097159850709</v>
+        <v>8.003097159851507</v>
       </c>
       <c r="M4" t="n">
-        <v>177.0738728722983</v>
+        <v>177.0738728722975</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>41.46701798569057</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.008352059087656016</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27551,16 +27551,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,19 +27587,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>155.6065500658004</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27627,13 +27627,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>71.6919341185183</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>345.3812777453615</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>94.30469433218605</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>124.1795337716526</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>351.4522505090764</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>244.6775854546004</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>88.00173781849168</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>112.6535832126804</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431634</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="17">
@@ -28745,31 +28745,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668871</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28982,31 +28982,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29219,31 +29219,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431651</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29930,7 +29930,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29939,10 +29939,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="N34" t="n">
-        <v>28.01250026485164</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30182,13 +30182,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30404,31 +30404,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668768</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>28.01250026485212</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="C41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="D41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="E41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="F41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="G41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="H41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="I41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="T41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="U41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="V41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="W41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="X41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="Y41" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="C43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="D43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="E43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="F43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="G43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="H43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="I43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="J43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="K43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="L43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="N43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="O43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="P43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="R43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="S43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="T43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="U43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="V43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="W43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="X43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="C44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="D44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="E44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="F44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="G44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="H44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="I44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="T44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="U44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="V44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="W44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="X44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="Y44" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="C46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="D46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="E46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="F46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="G46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="H46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="I46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="J46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="K46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="L46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="N46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="O46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="P46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="R46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="S46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="T46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="U46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="V46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="W46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="X46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.73738968253585</v>
+        <v>72.73738968253589</v>
       </c>
     </row>
   </sheetData>
@@ -34701,13 +34701,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>181.2944783293118</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,16 +34789,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
-        <v>66.19388044736954</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>316.9893628657432</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>503.7020498768026</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>381.6583337168707</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N6" t="n">
-        <v>582.152310208853</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>305.8816555509188</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>183.7062566763415</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>170.2098882113391</v>
       </c>
       <c r="N9" t="n">
-        <v>598.8774259673913</v>
+        <v>599.4152234291466</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N12" t="n">
-        <v>173.4759251752883</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35509,7 +35509,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35588,7 +35588,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>570.8562868639657</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446882</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8774259673916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.63600263452964</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36059,13 +36059,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028106</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302979</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36302,7 +36302,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36530,7 +36530,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36539,7 +36539,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>259.444269251904</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215744</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611265</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
-        <v>282.1645859271085</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113954</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.448038484469</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37159,16 +37159,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>100.2854818434254</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37235,10 +37235,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N34" t="n">
-        <v>213.0525346398104</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
@@ -37250,7 +37250,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
-        <v>7.697989841835636</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N36" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37478,13 +37478,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437664</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>145.1867114541996</v>
+        <v>511.1624453563714</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37642,7 +37642,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528606</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176441</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37724,7 +37724,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>633.6373032706776</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.66290221037678</v>
+        <v>42.66290221037682</v>
       </c>
       <c r="K43" t="n">
-        <v>155.3990473693458</v>
+        <v>155.3990473693459</v>
       </c>
       <c r="L43" t="n">
-        <v>238.5228845045558</v>
+        <v>238.5228845045559</v>
       </c>
       <c r="M43" t="n">
         <v>260.9107011353278</v>
       </c>
       <c r="N43" t="n">
-        <v>257.7774240574946</v>
+        <v>257.7774240574947</v>
       </c>
       <c r="O43" t="n">
         <v>237.0856392196147</v>
       </c>
       <c r="P43" t="n">
-        <v>193.824425820494</v>
+        <v>193.8244258204941</v>
       </c>
       <c r="Q43" t="n">
-        <v>76.19415369268833</v>
+        <v>76.19415369268837</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38098,16 +38098,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.904887558667</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>338.9576825854768</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38116,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.66290221037678</v>
+        <v>42.66290221037682</v>
       </c>
       <c r="K46" t="n">
-        <v>155.3990473693458</v>
+        <v>155.3990473693459</v>
       </c>
       <c r="L46" t="n">
-        <v>238.5228845045558</v>
+        <v>238.5228845045559</v>
       </c>
       <c r="M46" t="n">
         <v>260.9107011353278</v>
       </c>
       <c r="N46" t="n">
-        <v>257.7774240574946</v>
+        <v>257.7774240574947</v>
       </c>
       <c r="O46" t="n">
         <v>237.0856392196147</v>
       </c>
       <c r="P46" t="n">
-        <v>193.824425820494</v>
+        <v>193.8244258204941</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.19415369268833</v>
+        <v>76.19415369268837</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
